--- a/inst/extdata/MSF-outbreak-dict.xlsx
+++ b/inst/extdata/MSF-outbreak-dict.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Desktop\sitrep\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cholera" sheetId="1" r:id="rId1"/>
     <sheet name="Measles" sheetId="3" r:id="rId2"/>
     <sheet name="Meningitis" sheetId="4" r:id="rId3"/>
-    <sheet name="OptionCodes" sheetId="2" r:id="rId4"/>
-    <sheet name="Rules" sheetId="5" r:id="rId5"/>
+    <sheet name="AJS" sheetId="6" r:id="rId4"/>
+    <sheet name="OptionCodes" sheetId="2" r:id="rId5"/>
+    <sheet name="Rules" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="1058">
   <si>
     <t>EGEN_044 Event file type</t>
   </si>
@@ -3013,13 +3014,206 @@
   </si>
   <si>
     <t>Meningitis</t>
+  </si>
+  <si>
+    <t>Ever received Hepatitis E vaccine?</t>
+  </si>
+  <si>
+    <t>History of fever</t>
+  </si>
+  <si>
+    <t>Nausea/anorexia</t>
+  </si>
+  <si>
+    <t>Epigastric pain/heartburn</t>
+  </si>
+  <si>
+    <t>Generalized itch</t>
+  </si>
+  <si>
+    <t>Joint pains</t>
+  </si>
+  <si>
+    <t>Diarrhoea</t>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>Convulsions</t>
+  </si>
+  <si>
+    <t>Mental state</t>
+  </si>
+  <si>
+    <t>Other symptoms</t>
+  </si>
+  <si>
+    <t>Other cases in HH</t>
+  </si>
+  <si>
+    <t>Traditional medicines</t>
+  </si>
+  <si>
+    <t>Traditional medicine details</t>
+  </si>
+  <si>
+    <t>Recent travel</t>
+  </si>
+  <si>
+    <t>Water source</t>
+  </si>
+  <si>
+    <t>Hep B RDT</t>
+  </si>
+  <si>
+    <t>Hep C RDT</t>
+  </si>
+  <si>
+    <t>Hep E RDT</t>
+  </si>
+  <si>
+    <t>Dengue RDT</t>
+  </si>
+  <si>
+    <t>Test: Hepatitis A</t>
+  </si>
+  <si>
+    <t>Test: Hepatitis B</t>
+  </si>
+  <si>
+    <t>Test: Hepatitis C</t>
+  </si>
+  <si>
+    <t>Test: Hepatitis E virus</t>
+  </si>
+  <si>
+    <t>Test: Hepatitis E IgM</t>
+  </si>
+  <si>
+    <t>Test: Hepatitis E IgG</t>
+  </si>
+  <si>
+    <t>Test: Hepatitis E genotype</t>
+  </si>
+  <si>
+    <t>Malaria blood film</t>
+  </si>
+  <si>
+    <t>Dengue</t>
+  </si>
+  <si>
+    <t>Yellow fever</t>
+  </si>
+  <si>
+    <t>Lassa Fever</t>
+  </si>
+  <si>
+    <t>Typhoid</t>
+  </si>
+  <si>
+    <t>Chikungunya / Onyongnyong</t>
+  </si>
+  <si>
+    <t>Ebola / Marburg</t>
+  </si>
+  <si>
+    <t>Other arthropod-transmitted virus</t>
+  </si>
+  <si>
+    <t>Other pathogen</t>
+  </si>
+  <si>
+    <t>Lab comments</t>
+  </si>
+  <si>
+    <t>EGEN_004 EGEN_004 Date of Consultation/Admission</t>
+  </si>
+  <si>
+    <t>EGEN_036 Date of Last  Vaccination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age of patient (in years) at initial exam date </t>
+  </si>
+  <si>
+    <t>Location of last known residence. Use the geo-locations list present in the system.</t>
+  </si>
+  <si>
+    <t>Optionset:
+Yes - vaccination card
+Yes - verbal
+No
+Unsure</t>
+  </si>
+  <si>
+    <t>Self-reported recent fever</t>
+  </si>
+  <si>
+    <t>Presenting symptoms</t>
+  </si>
+  <si>
+    <t>Are any of the members of the same household presenting the same symptoms?</t>
+  </si>
+  <si>
+    <t>Has the patient ingested any medicines obtained from a traditional/local healer or bought from the market?</t>
+  </si>
+  <si>
+    <t>If yes, how much and when, and any other known details of the medicine.</t>
+  </si>
+  <si>
+    <t>Has the patient travelled in the last 2 weeks?</t>
+  </si>
+  <si>
+    <t>Include name of external lab where any samples are sent</t>
+  </si>
+  <si>
+    <t>Trimester of pregnancy at admission</t>
+  </si>
+  <si>
+    <t>Foetus alive at mother's admission?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregnant woman went to delivery room (or delivered baby somewhere within MSF facility) at some point during inpatient stay </t>
+  </si>
+  <si>
+    <t>Foetus or newborn alive at mother's exit?</t>
+  </si>
+  <si>
+    <t>ORG UNIT</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>[B] Bore</t>
+  </si>
+  <si>
+    <t>[W] Well</t>
+  </si>
+  <si>
+    <t>[T] Tank</t>
+  </si>
+  <si>
+    <t>[P] Piped</t>
+  </si>
+  <si>
+    <t>[S] Surface</t>
+  </si>
+  <si>
+    <t>[O] Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3040,6 +3234,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3089,8 +3290,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3106,8 +3308,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3387,11 +3590,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4453,10 +4656,10 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5641,10 +5844,10 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6835,11 +7038,1112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E192"/>
+  <dimension ref="A1:G66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10115,6 +11419,96 @@
         <v>850</v>
       </c>
     </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="3">
+        <v>1</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C194" s="4"/>
+      <c r="D194" s="5">
+        <v>2</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="3">
+        <v>3</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="3">
+        <v>4</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C197" s="4"/>
+      <c r="D197" s="5">
+        <v>5</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" s="3">
+        <v>6</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A3:E193">
     <sortCondition ref="E3:E193"/>
@@ -10124,7 +11518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>

--- a/inst/extdata/MSF-outbreak-dict.xlsx
+++ b/inst/extdata/MSF-outbreak-dict.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1058">
   <si>
     <t>EGEN_044 Event file type</t>
   </si>
@@ -5844,10 +5844,10 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7038,10 +7038,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7723,9 +7723,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="2" t="s">
-        <v>348</v>
-      </c>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
@@ -8131,6 +8129,65 @@
       <c r="G66" s="2" t="s">
         <v>344</v>
       </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8142,8 +8199,8 @@
   <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F204" sqref="F204"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/MSF-outbreak-dict.xlsx
+++ b/inst/extdata/MSF-outbreak-dict.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="1053">
   <si>
     <t>EGEN_044 Event file type</t>
   </si>
@@ -1099,18 +1099,6 @@
     <t>tc3qhwUje15</t>
   </si>
   <si>
-    <t>fQStme36nmo</t>
-  </si>
-  <si>
-    <t>EGEN_003 Date of Admission</t>
-  </si>
-  <si>
-    <t>Date of admission</t>
-  </si>
-  <si>
-    <t>Date of admission to program. This should be the same as the Report date.</t>
-  </si>
-  <si>
     <t>KQmV1bUMIr2</t>
   </si>
   <si>
@@ -3125,9 +3113,6 @@
   </si>
   <si>
     <t>Lab comments</t>
-  </si>
-  <si>
-    <t>EGEN_004 EGEN_004 Date of Consultation/Admission</t>
   </si>
   <si>
     <t>EGEN_036 Date of Last  Vaccination</t>
@@ -3588,13 +3573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3610,25 +3595,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3858,792 +3843,771 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="F21" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="F42" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="F46" s="4" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="G47" s="4"/>
+      <c r="G46" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4656,10 +4620,10 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4675,30 +4639,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>232</v>
@@ -4707,7 +4671,7 @@
         <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>51</v>
@@ -4742,7 +4706,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>235</v>
@@ -4751,7 +4715,7 @@
         <v>236</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>51</v>
@@ -4786,16 +4750,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
@@ -4804,7 +4768,7 @@
         <v>178</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4832,7 +4796,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
@@ -4841,7 +4805,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>3</v>
@@ -4853,7 +4817,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
@@ -4862,42 +4826,42 @@
         <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>224</v>
@@ -4906,7 +4870,7 @@
         <v>225</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>3</v>
@@ -4915,12 +4879,12 @@
         <v>225</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>214</v>
@@ -4941,7 +4905,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>27</v>
@@ -4950,7 +4914,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>3</v>
@@ -4959,33 +4923,33 @@
         <v>28</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>82</v>
@@ -4994,7 +4958,7 @@
         <v>83</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>3</v>
@@ -5003,12 +4967,12 @@
         <v>83</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>248</v>
@@ -5017,7 +4981,7 @@
         <v>249</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>51</v>
@@ -5029,7 +4993,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>85</v>
@@ -5038,19 +5002,19 @@
         <v>86</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -5059,19 +5023,19 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>0</v>
@@ -5080,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>3</v>
@@ -5089,12 +5053,12 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>32</v>
@@ -5103,7 +5067,7 @@
         <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>3</v>
@@ -5112,12 +5076,12 @@
         <v>178</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>241</v>
@@ -5126,7 +5090,7 @@
         <v>242</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>3</v>
@@ -5135,12 +5099,12 @@
         <v>242</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
@@ -5149,7 +5113,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>3</v>
@@ -5158,12 +5122,12 @@
         <v>13</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>52</v>
@@ -5172,7 +5136,7 @@
         <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>51</v>
@@ -5184,7 +5148,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
@@ -5193,7 +5157,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -5205,7 +5169,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>38</v>
@@ -5214,13 +5178,13 @@
         <v>39</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -5270,7 +5234,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>222</v>
@@ -5279,7 +5243,7 @@
         <v>223</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>51</v>
@@ -5291,7 +5255,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>230</v>
@@ -5300,7 +5264,7 @@
         <v>231</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>51</v>
@@ -5358,7 +5322,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>210</v>
@@ -5367,21 +5331,21 @@
         <v>211</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
@@ -5390,21 +5354,21 @@
         <v>47</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>20</v>
@@ -5413,19 +5377,19 @@
         <v>21</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>34</v>
@@ -5434,7 +5398,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>6</v>
@@ -5446,7 +5410,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>247</v>
@@ -5455,7 +5419,7 @@
         <v>186</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>3</v>
@@ -5464,12 +5428,12 @@
         <v>186</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>23</v>
@@ -5478,28 +5442,28 @@
         <v>24</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>6</v>
@@ -5511,7 +5475,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>250</v>
@@ -5520,7 +5484,7 @@
         <v>251</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>51</v>
@@ -5532,28 +5496,28 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>239</v>
@@ -5562,7 +5526,7 @@
         <v>240</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>51</v>
@@ -5574,7 +5538,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>218</v>
@@ -5583,7 +5547,7 @@
         <v>219</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>51</v>
@@ -5595,7 +5559,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>226</v>
@@ -5604,7 +5568,7 @@
         <v>227</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>3</v>
@@ -5613,12 +5577,12 @@
         <v>227</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>212</v>
@@ -5627,7 +5591,7 @@
         <v>213</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>3</v>
@@ -5636,12 +5600,12 @@
         <v>213</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>79</v>
@@ -5650,19 +5614,19 @@
         <v>80</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>237</v>
@@ -5671,7 +5635,7 @@
         <v>238</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>51</v>
@@ -5683,7 +5647,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>220</v>
@@ -5692,7 +5656,7 @@
         <v>221</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>51</v>
@@ -5704,7 +5668,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>228</v>
@@ -5713,7 +5677,7 @@
         <v>229</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>51</v>
@@ -5725,7 +5689,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>73</v>
@@ -5734,7 +5698,7 @@
         <v>74</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>3</v>
@@ -5743,12 +5707,12 @@
         <v>74</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>77</v>
@@ -5757,7 +5721,7 @@
         <v>78</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>3</v>
@@ -5766,12 +5730,12 @@
         <v>78</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>216</v>
@@ -5780,7 +5744,7 @@
         <v>217</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>51</v>
@@ -5792,7 +5756,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>243</v>
@@ -5801,7 +5765,7 @@
         <v>244</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>3</v>
@@ -5810,12 +5774,12 @@
         <v>244</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>245</v>
@@ -5824,7 +5788,7 @@
         <v>246</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>51</v>
@@ -5844,10 +5808,10 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11:G11"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5863,30 +5827,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>262</v>
@@ -5907,7 +5871,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>285</v>
@@ -5928,7 +5892,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>232</v>
@@ -5937,7 +5901,7 @@
         <v>234</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>51</v>
@@ -5949,7 +5913,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>297</v>
@@ -5958,7 +5922,7 @@
         <v>298</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>51</v>
@@ -5991,7 +5955,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>253</v>
@@ -6012,7 +5976,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>256</v>
@@ -6033,7 +5997,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>310</v>
@@ -6051,12 +6015,12 @@
         <v>312</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>280</v>
@@ -6077,7 +6041,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>30</v>
@@ -6086,7 +6050,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>3</v>
@@ -6098,7 +6062,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>288</v>
@@ -6107,7 +6071,7 @@
         <v>289</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>3</v>
@@ -6119,7 +6083,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -6128,42 +6092,42 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>62</v>
@@ -6172,7 +6136,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>6</v>
@@ -6184,7 +6148,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>214</v>
@@ -6205,7 +6169,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>283</v>
@@ -6214,7 +6178,7 @@
         <v>284</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>51</v>
@@ -6226,7 +6190,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
@@ -6235,7 +6199,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>3</v>
@@ -6244,12 +6208,12 @@
         <v>28</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>271</v>
@@ -6270,28 +6234,28 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>85</v>
@@ -6300,19 +6264,19 @@
         <v>86</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -6321,19 +6285,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>0</v>
@@ -6342,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>3</v>
@@ -6351,12 +6315,12 @@
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>32</v>
@@ -6365,7 +6329,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>3</v>
@@ -6374,12 +6338,12 @@
         <v>178</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>301</v>
@@ -6388,7 +6352,7 @@
         <v>302</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>3</v>
@@ -6397,12 +6361,12 @@
         <v>302</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
@@ -6411,7 +6375,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>3</v>
@@ -6420,12 +6384,12 @@
         <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -6434,7 +6398,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>11</v>
@@ -6446,7 +6410,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>38</v>
@@ -6455,19 +6419,19 @@
         <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>290</v>
@@ -6476,7 +6440,7 @@
         <v>291</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>3</v>
@@ -6534,7 +6498,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>316</v>
@@ -6552,12 +6516,12 @@
         <v>318</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>268</v>
@@ -6578,7 +6542,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>313</v>
@@ -6596,12 +6560,12 @@
         <v>315</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>274</v>
@@ -6645,7 +6609,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>292</v>
@@ -6654,7 +6618,7 @@
         <v>293</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>3</v>
@@ -6691,7 +6655,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>277</v>
@@ -6712,7 +6676,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>210</v>
@@ -6721,21 +6685,21 @@
         <v>211</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>20</v>
@@ -6744,19 +6708,19 @@
         <v>21</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>259</v>
@@ -6777,7 +6741,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>34</v>
@@ -6786,7 +6750,7 @@
         <v>35</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>6</v>
@@ -6798,7 +6762,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>294</v>
@@ -6807,7 +6771,7 @@
         <v>296</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>3</v>
@@ -6816,12 +6780,12 @@
         <v>295</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>303</v>
@@ -6842,7 +6806,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>23</v>
@@ -6851,19 +6815,19 @@
         <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>265</v>
@@ -6884,16 +6848,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>6</v>
@@ -6905,28 +6869,28 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>299</v>
@@ -6935,7 +6899,7 @@
         <v>300</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>51</v>
@@ -6947,7 +6911,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>79</v>
@@ -6956,19 +6920,19 @@
         <v>80</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>306</v>
@@ -6986,12 +6950,12 @@
         <v>307</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>319</v>
@@ -7000,7 +6964,7 @@
         <v>320</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>3</v>
@@ -7012,7 +6976,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>308</v>
@@ -7021,7 +6985,7 @@
         <v>309</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>6</v>
@@ -7040,8 +7004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7057,25 +7021,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7087,14 +7051,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7103,10 +7067,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -7117,13 +7081,13 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>1032</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>358</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -7140,14 +7104,14 @@
         <v>213</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7159,14 +7123,14 @@
         <v>211</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7175,17 +7139,17 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7197,7 +7161,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -7214,7 +7178,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>22</v>
@@ -7231,7 +7195,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -7248,14 +7212,14 @@
         <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -7264,13 +7228,13 @@
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -7284,14 +7248,14 @@
         <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7303,7 +7267,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>6</v>
@@ -7314,10 +7278,10 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>3</v>
@@ -7330,7 +7294,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>48</v>
@@ -7361,10 +7325,10 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>51</v>
@@ -7393,10 +7357,10 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -7411,7 +7375,7 @@
         <v>276</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>51</v>
@@ -7423,10 +7387,10 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
@@ -7438,10 +7402,10 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>51</v>
@@ -7456,7 +7420,7 @@
         <v>273</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
@@ -7468,10 +7432,10 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>51</v>
@@ -7483,10 +7447,10 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>51</v>
@@ -7498,10 +7462,10 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>51</v>
@@ -7513,10 +7477,10 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>51</v>
@@ -7528,10 +7492,10 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>51</v>
@@ -7543,10 +7507,10 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>51</v>
@@ -7558,10 +7522,10 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>51</v>
@@ -7573,10 +7537,10 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>51</v>
@@ -7588,10 +7552,10 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>3</v>
@@ -7603,10 +7567,10 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>51</v>
@@ -7618,7 +7582,7 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
@@ -7626,7 +7590,7 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7652,7 +7616,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
@@ -7667,7 +7631,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
@@ -7682,7 +7646,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
@@ -7697,7 +7661,7 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
@@ -7717,7 +7681,7 @@
         <v>63</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>6</v>
@@ -7729,7 +7693,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
@@ -7744,7 +7708,7 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
@@ -7759,7 +7723,7 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
@@ -7774,7 +7738,7 @@
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
@@ -7789,7 +7753,7 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
@@ -7804,7 +7768,7 @@
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
@@ -7819,7 +7783,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
@@ -7834,7 +7798,7 @@
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
@@ -7849,7 +7813,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
@@ -7864,7 +7828,7 @@
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
@@ -7879,7 +7843,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
@@ -7894,7 +7858,7 @@
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
@@ -7909,7 +7873,7 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
@@ -7924,7 +7888,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
@@ -7939,7 +7903,7 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
@@ -7954,7 +7918,7 @@
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
@@ -7971,10 +7935,10 @@
         <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>3</v>
@@ -7991,14 +7955,14 @@
         <v>74</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -8010,7 +7974,7 @@
         <v>76</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>3</v>
@@ -8029,14 +7993,14 @@
         <v>78</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -8048,7 +8012,7 @@
         <v>80</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>81</v>
@@ -8065,14 +8029,14 @@
         <v>83</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -8103,7 +8067,7 @@
         <v>86</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>6</v>
@@ -8139,7 +8103,7 @@
         <v>14</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>3</v>
@@ -8148,7 +8112,7 @@
         <v>13</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -8160,7 +8124,7 @@
         <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
@@ -8179,7 +8143,7 @@
         <v>31</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>3</v>
@@ -8214,217 +8178,217 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>780</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
@@ -8435,13 +8399,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -8452,13 +8416,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
@@ -8469,13 +8433,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -8486,149 +8450,149 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D21" s="5">
         <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D23" s="5">
         <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D24" s="3">
         <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -8639,13 +8603,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -8656,13 +8620,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D27" s="5">
         <v>3</v>
@@ -8673,217 +8637,217 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D29" s="5">
         <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D30" s="3">
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D33" s="5">
         <v>3</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="D34" s="3">
         <v>4</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D36" s="3">
         <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D37" s="5">
         <v>7</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D38" s="3">
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D39" s="5">
         <v>9</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -8894,13 +8858,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D41" s="5">
         <v>2</v>
@@ -8911,13 +8875,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D42" s="3">
         <v>3</v>
@@ -8928,13 +8892,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D43" s="5">
         <v>4</v>
@@ -8945,13 +8909,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D44" s="3">
         <v>5</v>
@@ -8962,13 +8926,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D45" s="5">
         <v>6</v>
@@ -8979,251 +8943,251 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D48" s="3">
         <v>3</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D49" s="5">
         <v>4</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D51" s="5">
         <v>2</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D52" s="3">
         <v>3</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D53" s="5">
         <v>4</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D54" s="3">
         <v>5</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D55" s="5">
         <v>6</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D56" s="3">
         <v>7</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D57" s="5">
         <v>8</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D58" s="3">
         <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D59" s="5">
         <v>10</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
@@ -9234,13 +9198,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D61" s="5">
         <v>2</v>
@@ -9251,13 +9215,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D62" s="3">
         <v>3</v>
@@ -9268,13 +9232,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D63" s="5">
         <v>4</v>
@@ -9285,268 +9249,268 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D66" s="3">
         <v>3</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D67" s="5">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D68" s="3">
         <v>5</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D69" s="5">
         <v>6</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="D70" s="3">
         <v>7</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D71" s="5">
         <v>8</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="D72" s="3">
         <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D73" s="5">
         <v>1</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D74" s="3">
         <v>2</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D75" s="5">
         <v>3</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D77" s="5">
         <v>2</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D78" s="3">
         <v>3</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D79" s="5">
         <v>1</v>
@@ -9557,13 +9521,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D80" s="3">
         <v>2</v>
@@ -9574,13 +9538,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D81" s="5">
         <v>3</v>
@@ -9591,13 +9555,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D82" s="3">
         <v>4</v>
@@ -9608,1084 +9572,1084 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D83" s="5">
         <v>1</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D84" s="3">
         <v>2</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D85" s="5">
         <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D86" s="3">
         <v>4</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D87" s="5">
         <v>5</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D88" s="3">
         <v>6</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D89" s="5">
         <v>7</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D90" s="3">
         <v>8</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D91" s="5">
         <v>9</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D92" s="3">
         <v>10</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D93" s="5">
         <v>11</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D94" s="3">
         <v>12</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D95" s="5">
         <v>13</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D96" s="3">
         <v>14</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D97" s="5">
         <v>15</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D98" s="3">
         <v>16</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D99" s="5">
         <v>17</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D100" s="3">
         <v>18</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D101" s="5">
         <v>19</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D102" s="3">
         <v>20</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D103" s="5">
         <v>21</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D104" s="3">
         <v>22</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D105" s="5">
         <v>23</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D106" s="3">
         <v>24</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D107" s="5">
         <v>25</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D108" s="3">
         <v>26</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D109" s="5">
         <v>27</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D110" s="3">
         <v>28</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D111" s="5">
         <v>29</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D112" s="3">
         <v>30</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D113" s="5">
         <v>31</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D114" s="3">
         <v>32</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D115" s="5">
         <v>33</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D116" s="3">
         <v>34</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D117" s="5">
         <v>35</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D118" s="3">
         <v>36</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D119" s="5">
         <v>37</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D120" s="3">
         <v>38</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D121" s="5">
         <v>39</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D122" s="3">
         <v>40</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D123" s="5">
         <v>41</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D124" s="3">
         <v>42</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D125" s="5">
         <v>43</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D126" s="3">
         <v>44</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D127" s="5">
         <v>45</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D128" s="3">
         <v>46</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D129" s="5">
         <v>47</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D130" s="3">
         <v>48</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D131" s="5">
         <v>49</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D132" s="3">
         <v>50</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D133" s="5">
         <v>1</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D134" s="3">
         <v>2</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D135" s="5">
         <v>3</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D136" s="3">
         <v>1</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D137" s="5">
         <v>2</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D138" s="3">
         <v>3</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>192</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D139" s="5">
         <v>1</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D140" s="3">
         <v>2</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D141" s="5">
         <v>3</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D143" s="5">
         <v>2</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D144" s="3">
         <v>3</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D145" s="5">
         <v>4</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D146" s="3">
         <v>1</v>
@@ -10696,13 +10660,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D147" s="5">
         <v>2</v>
@@ -10713,13 +10677,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D148" s="3">
         <v>3</v>
@@ -10730,98 +10694,98 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D149" s="5">
         <v>1</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D150" s="3">
         <v>2</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D151" s="5">
         <v>3</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D152" s="3">
         <v>1</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D153" s="5">
         <v>2</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D154" s="3">
         <v>1</v>
@@ -10832,13 +10796,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D155" s="5">
         <v>2</v>
@@ -10849,13 +10813,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D156" s="3">
         <v>3</v>
@@ -10866,13 +10830,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D157" s="5">
         <v>4</v>
@@ -10883,13 +10847,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D158" s="3">
         <v>5</v>
@@ -10900,166 +10864,166 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D159" s="5">
         <v>1</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D160" s="3">
         <v>2</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D161" s="5">
         <v>3</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D162" s="3">
         <v>1</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D163" s="5">
         <v>2</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D164" s="3">
         <v>3</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D165" s="5">
         <v>4</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D166" s="3">
         <v>5</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D167" s="5">
         <v>6</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D168" s="3">
         <v>1</v>
@@ -11070,13 +11034,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D169" s="5">
         <v>2</v>
@@ -11087,13 +11051,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D170" s="3">
         <v>3</v>
@@ -11104,13 +11068,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D171" s="5">
         <v>4</v>
@@ -11121,13 +11085,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D172" s="3">
         <v>5</v>
@@ -11138,13 +11102,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D173" s="5">
         <v>6</v>
@@ -11155,415 +11119,415 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D174" s="3">
         <v>1</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D175" s="5">
         <v>2</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D176" s="3">
         <v>3</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D177" s="5">
         <v>4</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D178" s="3">
         <v>5</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D179" s="5">
         <v>6</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D180" s="3">
         <v>1</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D181" s="5">
         <v>2</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D182" s="3">
         <v>3</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D183" s="5">
         <v>1</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D184" s="3">
         <v>2</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D185" s="5">
         <v>3</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D186" s="3">
         <v>4</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D187" s="5">
         <v>1</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D188" s="3">
         <v>2</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D189" s="5">
         <v>3</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D190" s="3">
         <v>4</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D191" s="5">
         <v>1</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D192" s="3">
         <v>2</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="3">
         <v>1</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="5">
         <v>2</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3">
         <v>3</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3">
         <v>4</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="5">
         <v>5</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3">
         <v>6</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
   </sheetData>
@@ -11593,282 +11557,282 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>793</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
